--- a/medicine/Enfance/Christine_Busta/Christine_Busta.xlsx
+++ b/medicine/Enfance/Christine_Busta/Christine_Busta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christine Busta , née à Vienne (Autriche) le 23 avril 1915 et morte dans la même ville le 3 décembre 1987, est une poétesse autrichienne.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,8 +553,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Poésies
-Jahr um Jahr, 1950
+          <t>Poésies</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Jahr um Jahr, 1950
 Der Regenbaum, 1951
 Lampe und Delphin, 1955
 Die Scheune der Vögel, 1958
@@ -554,13 +573,7 @@
 Der Himmel im Kastanienbaum, 1989 (éd. posthume par les soins de Franz Peter Künzel)
 Der Atem des Wortes, 1995 (éd. posthume par les soins d’Anton Gruber)
 Einsilbig ist die Sprache der Nacht (choix de poèmes avec CD), 2000 (éd. posthume par les soins d’Anton Gruber)
-Erfreuliche Bilanz, poèmes en dialecte (livre avec CD, lu par Christine Nöstlinger), 2013 (éd. posthume par les soins de Christine Tavernier)
-Livres pour enfants
-Die Sternenmühle, 1959
-Die Zauberin Frau Zappelzeh, 1979
-Prose
-Bethlehemitische Legende, 1954
-Der Regenengel (légendes), 1988</t>
+Erfreuliche Bilanz, poèmes en dialecte (livre avec CD, lu par Christine Nöstlinger), 2013 (éd. posthume par les soins de Christine Tavernier)</t>
         </is>
       </c>
     </row>
@@ -585,13 +598,89 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Livres pour enfants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Die Sternenmühle, 1959
+Die Zauberin Frau Zappelzeh, 1979</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Christine_Busta</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christine_Busta</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Prose</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bethlehemitische Legende, 1954
+Der Regenengel (légendes), 1988</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Christine_Busta</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christine_Busta</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1954 : Prix Georg-Trakl
-1960 : (international) « Honor List »[2], de l' IBBY, pour Die Sternenmühle
+1960 : (international) « Honor List », de l' IBBY, pour Die Sternenmühle
 1964 : Prix de la Ville de Vienne de littérature
 1969 : Grand Prix d'État autrichien
 1975 : Prix Anton-Wildgans</t>
